--- a/biology/Médecine/Léproserie_de_Pontfrault/Léproserie_de_Pontfrault.xlsx
+++ b/biology/Médecine/Léproserie_de_Pontfrault/Léproserie_de_Pontfrault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9proserie_de_Pontfrault</t>
+          <t>Léproserie_de_Pontfrault</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La léproserie de Pontfrault, aussi orthographié Pontfraud, est une abbaye de femmes, transformée en léproserie au XIIe siècle, et située dans la ville de Château-Landon en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9proserie_de_Pontfrault</t>
+          <t>Léproserie_de_Pontfrault</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le toponyme « Pons Feraudi » est attesté depuis environ 1090[1]. La présence de malades (« infirmi ») est attestée au début du XIIe siècle dans un acte non daté, peut-être de 1133[2], plus spécifiquement de lépreux en 1189[1]. L'église a été consacrée par Thomas Becket, archevêque de Cantorbéry[3].
-La reine Adèle de Champagne intervient en 1194 pour régler un conflit avec Osanne d'Egreville et ses fils : la terre disputée est conservée par la léproserie qui indemnise cependant Osanne[4]. Le 29 décembre 1256 Saint-Louis accorde à la léproserie certains droits d'usage dans la forêt de Paucourt[5].
-Les biens de la léproserie sont rattachés à ceux de l'hôtel-Dieu de Château-Landon en 1695[3], après avoir probablement cessé ses activités au cours du XVIIe siècle[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le toponyme « Pons Feraudi » est attesté depuis environ 1090. La présence de malades (« infirmi ») est attestée au début du XIIe siècle dans un acte non daté, peut-être de 1133, plus spécifiquement de lépreux en 1189. L'église a été consacrée par Thomas Becket, archevêque de Cantorbéry.
+La reine Adèle de Champagne intervient en 1194 pour régler un conflit avec Osanne d'Egreville et ses fils : la terre disputée est conservée par la léproserie qui indemnise cependant Osanne. Le 29 décembre 1256 Saint-Louis accorde à la léproserie certains droits d'usage dans la forêt de Paucourt.
+Les biens de la léproserie sont rattachés à ceux de l'hôtel-Dieu de Château-Landon en 1695, après avoir probablement cessé ses activités au cours du XVIIe siècle.
 </t>
         </is>
       </c>
